--- a/group4.xlsx
+++ b/group4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakac\OneDrive\Desktop\DoAn_MXH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15080E1A-B673-42BB-9730-16F4EC248716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABED5DB1-C14D-4A0B-9923-259B9206F8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -141,10 +141,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1201,15 +1200,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1360,7 +1359,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67AE887E-E53B-4AA8-AC44-BE3CF2103CA6}" name="PivotTable5" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67AE887E-E53B-4AA8-AC44-BE3CF2103CA6}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -1756,7 +1755,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -1764,154 +1763,154 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>56</v>
       </c>
     </row>
